--- a/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_EigenCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_EigenCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1243962916407682</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.1227320326255652</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1992477755555708</v>
       </c>
       <c r="E2" t="n">
         <v>0.1992477755555708</v>
       </c>
       <c r="F2" t="n">
+        <v>0.1992477755555708</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.1243962916407681</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.00632904325442162</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006328420006579437</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.00635707436340654</v>
       </c>
       <c r="E3" t="n">
         <v>0.00635707436340654</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00635707436340654</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.006329043254421629</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.007084914595333287</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.007038770595243073</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.009160280778700697</v>
       </c>
       <c r="E4" t="n">
         <v>0.009160280778700697</v>
       </c>
       <c r="F4" t="n">
+        <v>0.009160280778700697</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.00708491459533328</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.005145823522122917</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.005151611911467605</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.00488548572135479</v>
       </c>
       <c r="E5" t="n">
         <v>0.00488548572135479</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00488548572135479</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.005145823522122919</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005818285533612913</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005829848098198954</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.005298249223627341</v>
       </c>
       <c r="E6" t="n">
         <v>0.005298249223627341</v>
       </c>
       <c r="F6" t="n">
+        <v>0.005298249223627341</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.005818285533612905</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.007019536747376468</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.007022471325931683</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.006887551547046658</v>
       </c>
       <c r="E7" t="n">
         <v>0.006887551547046658</v>
       </c>
       <c r="F7" t="n">
+        <v>0.006887551547046658</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.007019536747376472</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.007682392169617336</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.007697719810353199</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.00699301831403895</v>
       </c>
       <c r="E8" t="n">
         <v>0.00699301831403895</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00699301831403895</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.007682392169617341</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.4631703771836258</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.464518850632977</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4025216213219412</v>
       </c>
       <c r="E9" t="n">
         <v>0.4025216213219412</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4025216213219412</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4631703771836254</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.04152150512572907</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.04126799786630321</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.05292321265914827</v>
       </c>
       <c r="E10" t="n">
         <v>0.05292321265914827</v>
       </c>
       <c r="F10" t="n">
+        <v>0.05292321265914827</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.04152150512572906</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.003051020644993808</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.003057943854874642</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.002739643312318996</v>
       </c>
       <c r="E11" t="n">
         <v>0.002739643312318996</v>
       </c>
       <c r="F11" t="n">
+        <v>0.002739643312318996</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.003051020644993808</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02717725609676073</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02722106485276596</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.02520691952925703</v>
       </c>
       <c r="E12" t="n">
         <v>0.02520691952925703</v>
       </c>
       <c r="F12" t="n">
+        <v>0.02520691952925703</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.02717725609676076</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.003013115866504497</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.003012209651622885</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.003053873662024415</v>
       </c>
       <c r="E13" t="n">
         <v>0.003053873662024415</v>
       </c>
       <c r="F13" t="n">
+        <v>0.003053873662024415</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.00301311586650449</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.02770149297809177</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.02777431280441489</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.02442635851349731</v>
       </c>
       <c r="E14" t="n">
         <v>0.02442635851349731</v>
       </c>
       <c r="F14" t="n">
+        <v>0.02442635851349731</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.02770149297809177</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2619598843309613</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2626265723846787</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2319750143839308</v>
       </c>
       <c r="E15" t="n">
         <v>0.2319750143839308</v>
       </c>
       <c r="F15" t="n">
+        <v>0.2319750143839308</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.2619598843309612</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.000493311027241872</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.0004854498094831323</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0008468760728530489</v>
       </c>
       <c r="E16" t="n">
         <v>0.0008468760728530489</v>
       </c>
       <c r="F16" t="n">
+        <v>0.0008468760728530489</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.0004933110272418722</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.0005057068745220906</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.000499240579838103</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0007965340523263985</v>
       </c>
       <c r="E17" t="n">
         <v>0.0007965340523263985</v>
       </c>
       <c r="F17" t="n">
+        <v>0.0007965340523263985</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.0005057068745220905</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0003980529083282664</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0004032902762358414</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0001624977717127487</v>
       </c>
       <c r="E18" t="n">
         <v>0.0001624977717127487</v>
       </c>
       <c r="F18" t="n">
+        <v>0.0001624977717127487</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.0003980529083282664</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.007528552030924166</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.007328679077387284</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.01651801042051569</v>
       </c>
       <c r="E19" t="n">
         <v>0.01651801042051569</v>
       </c>
       <c r="F19" t="n">
+        <v>0.01651801042051569</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.007528552030924166</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>3.437228010226829e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>3.513651848528277e-06</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.437228010226829e-06</v>
       </c>
     </row>
